--- a/data/tehilim-data/16.xlsx
+++ b/data/tehilim-data/16.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="174">
   <si>
     <t>original</t>
   </si>
@@ -34,16 +34,28 @@
     <t>Давида</t>
   </si>
   <si>
-    <t>שָׁמְרֵנִי אֵל</t>
-  </si>
-  <si>
-    <t>Храни меня, Бог</t>
-  </si>
-  <si>
-    <t>כִּי-חָסִיתִי בָךְ</t>
-  </si>
-  <si>
-    <t>ибо я уповаю на Тебя</t>
+    <t xml:space="preserve">שָׁמְרֵנִי </t>
+  </si>
+  <si>
+    <t>Храни меня</t>
+  </si>
+  <si>
+    <t>אֵל</t>
+  </si>
+  <si>
+    <t>Бог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כִּי-חָסִיתִי </t>
+  </si>
+  <si>
+    <t>ибо я уповаю</t>
+  </si>
+  <si>
+    <t>בָךְ</t>
+  </si>
+  <si>
+    <t>на Тебя</t>
   </si>
   <si>
     <t>ב</t>
@@ -79,10 +91,16 @@
     <t>благо мое</t>
   </si>
   <si>
-    <t>בַּל-עָלֶיךָ</t>
-  </si>
-  <si>
-    <t>нет ничего кроме Тебя</t>
+    <t>בַּל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет ничего </t>
+  </si>
+  <si>
+    <t>עָלֶיךָ</t>
+  </si>
+  <si>
+    <t>кроме Тебя</t>
   </si>
   <si>
     <t>ג</t>
@@ -94,10 +112,16 @@
     <t>К святым</t>
   </si>
   <si>
-    <t>אֲשֶׁר-בָּאָרֶץ</t>
-  </si>
-  <si>
-    <t>которые на земле</t>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">которые </t>
+  </si>
+  <si>
+    <t>בָּאָרֶץ</t>
+  </si>
+  <si>
+    <t>на земле</t>
   </si>
   <si>
     <t>הֵמָּה</t>
@@ -112,10 +136,16 @@
     <t>и благородные</t>
   </si>
   <si>
-    <t>כָּל-חֶפְצִי-בָם</t>
-  </si>
-  <si>
-    <t>все мое желание в них</t>
+    <t>כָּל-חֶפְצִי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все мое желание </t>
+  </si>
+  <si>
+    <t>בָם</t>
+  </si>
+  <si>
+    <t>в них</t>
   </si>
   <si>
     <t>ד</t>
@@ -205,10 +235,16 @@
     <t>אַתָּה</t>
   </si>
   <si>
-    <t>תּוֹמִיךְ גּוֹרָלִי</t>
-  </si>
-  <si>
-    <t>поддерживаешь жребий мой</t>
+    <t>תּוֹמִיךְ</t>
+  </si>
+  <si>
+    <t>поддерживаешь</t>
+  </si>
+  <si>
+    <t>גּוֹרָלִי</t>
+  </si>
+  <si>
+    <t>жребий мой</t>
   </si>
   <si>
     <t>ו</t>
@@ -259,10 +295,13 @@
     <t>Господа</t>
   </si>
   <si>
-    <t>אֲשֶׁר יְעָצָנִי</t>
-  </si>
-  <si>
-    <t>который наставляет меня</t>
+    <t xml:space="preserve">который </t>
+  </si>
+  <si>
+    <t>יְעָצָנִי</t>
+  </si>
+  <si>
+    <t>наставляет меня</t>
   </si>
   <si>
     <t>אַף</t>
@@ -310,16 +349,25 @@
     <t>всегда</t>
   </si>
   <si>
-    <t>כִּי-מִימִינִי</t>
-  </si>
-  <si>
-    <t>ибо Он по правую руку</t>
-  </si>
-  <si>
-    <t>בַּל-אֶמּוֹט</t>
-  </si>
-  <si>
-    <t>чтобы не поколебаться</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ибо Он </t>
+  </si>
+  <si>
+    <t>מִימִינִי</t>
+  </si>
+  <si>
+    <t>по правую руку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чтобы не </t>
+  </si>
+  <si>
+    <t>אֶמּוֹט</t>
+  </si>
+  <si>
+    <t>поколебаться</t>
   </si>
   <si>
     <t>ט</t>
@@ -361,10 +409,16 @@
     <t>даже плоть моя</t>
   </si>
   <si>
-    <t>יִשְׁכֹּן לָבֶטַח</t>
-  </si>
-  <si>
-    <t>пребывает в безопасности</t>
+    <t>יִשְׁכֹּן</t>
+  </si>
+  <si>
+    <t>пребывает</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לָבֶטַח</t>
+  </si>
+  <si>
+    <t>в безопасности</t>
   </si>
   <si>
     <t>י</t>
@@ -406,10 +460,16 @@
     <t>святому твоему</t>
   </si>
   <si>
-    <t>לִרְאוֹת שָׁחַת</t>
-  </si>
-  <si>
-    <t>увидеть тление</t>
+    <t xml:space="preserve">לִרְאוֹת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">увидеть </t>
+  </si>
+  <si>
+    <t>שָׁחַת</t>
+  </si>
+  <si>
+    <t>тление</t>
   </si>
   <si>
     <t>יא</t>
@@ -421,10 +481,16 @@
     <t>Ты поведешь меня</t>
   </si>
   <si>
-    <t>אֹרַח חַיִּים</t>
-  </si>
-  <si>
-    <t>путем жизни</t>
+    <t>אֹרַח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путем </t>
+  </si>
+  <si>
+    <t>חַיִּים</t>
+  </si>
+  <si>
+    <t>жизни</t>
   </si>
   <si>
     <t>שֹׂבַע</t>
@@ -439,10 +505,16 @@
     <t>радостей</t>
   </si>
   <si>
-    <t>אֶת-פָּנֶיךָ</t>
-  </si>
-  <si>
-    <t>перед лицом Твоим</t>
+    <t>אֶת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перед </t>
+  </si>
+  <si>
+    <t>פָּנֶיךָ</t>
+  </si>
+  <si>
+    <t>лицом Твоим</t>
   </si>
   <si>
     <t>נְעִמוֹת</t>
@@ -451,17 +523,23 @@
     <t>наслаждения</t>
   </si>
   <si>
-    <t>בִּימִינְךָ נֶצַח</t>
-  </si>
-  <si>
-    <t>в правой руке Твоей вовек</t>
+    <t xml:space="preserve">בִּימִינְךָ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">в правой руке Твоей </t>
+  </si>
+  <si>
+    <t>נֶצַח</t>
+  </si>
+  <si>
+    <t>вовек</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -473,13 +551,27 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -500,6 +592,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,7 +859,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -769,24 +870,24 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>2.0</v>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -825,32 +926,32 @@
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
-        <v>3.0</v>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -870,51 +971,51 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="3">
-        <v>4.0</v>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -961,152 +1062,152 @@
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3">
-        <v>5.0</v>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6.0</v>
+        <v>67</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>76</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="50">
@@ -1121,80 +1222,80 @@
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="3">
-        <v>8.0</v>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>81</v>
+      <c r="A53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -1225,88 +1326,88 @@
       <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="3" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B66" s="3">
-        <v>10.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>120</v>
+      <c r="B67" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B74" s="3">
-        <v>11.0</v>
       </c>
     </row>
     <row r="75">
@@ -1321,48 +1422,160 @@
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>137</v>
+      <c r="B76" s="3">
+        <v>10.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="3" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" s="3">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
